--- a/Input data/1_site_factors_2009-2023.xlsx
+++ b/Input data/1_site_factors_2009-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gamtostyrimai-my.sharepoint.com/personal/nathan_baker_gamtc_lt/Documents/MOBILR Project (2024-2027)/Analyses/River typology/Input data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gamtostyrimai-my.sharepoint.com/personal/nathan_baker_gamtc_lt/Documents/MOBILR Project (2024-2027)/Analyses/Lithuanian_river_typology/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{879C6711-8DDB-42AD-ADF2-3BC580A3ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{879C6711-8DDB-42AD-ADF2-3BC580A3ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A8D786-2769-42CB-8F20-E798768F0AF4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7061972B-F3AD-4BAE-81F4-63D28B813FCD}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7061972B-F3AD-4BAE-81F4-63D28B813FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="site_factors" sheetId="1" r:id="rId1"/>
@@ -3470,7 +3470,7 @@
   <dimension ref="A1:L621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
